--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tx_automate_java_latest\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2AB4B-EF38-4C83-A93A-D3CDD7C46B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1AE2AB4B-EF38-4C83-A93A-D3CDD7C46B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273B012D-E850-429C-BE59-856FD86072F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,6 +44,9 @@
     <t>Project Name</t>
   </si>
   <si>
+    <t>TX Automate</t>
+  </si>
+  <si>
     <t>Environment(UAT,STAGING etc.)</t>
   </si>
   <si>
@@ -42,12 +56,15 @@
     <t>Email Output(Y/N)</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>N</t>
   </si>
   <si>
     <t>Build Name</t>
   </si>
   <si>
+    <t>Demo_Build</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
@@ -61,6 +78,9 @@
   </si>
   <si>
     <t>EXECUTION ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
   </si>
   <si>
     <t>On Selecting 'Remote' option, All the below configurations are enabled.
@@ -82,7 +102,13 @@
     <t>OS</t>
   </si>
   <si>
+    <t>WINDOWS_10</t>
+  </si>
+  <si>
     <t>BROWSER</t>
+  </si>
+  <si>
+    <t>CHROME</t>
   </si>
   <si>
     <t>Edge browser is available only on WINDOWS_10.
@@ -95,9 +121,15 @@
     <t>EMAIL ID</t>
   </si>
   <si>
+    <t>txdemoone@gmail.com</t>
+  </si>
+  <si>
     <t>HTML Report</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>XLS REPORT</t>
   </si>
   <si>
@@ -116,6 +148,9 @@
     <t>Tool Config</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
     <t>Select "YES" if you have Test management tool configured else Select "NO"</t>
   </si>
   <si>
@@ -161,9 +196,21 @@
     <t>USERNAME</t>
   </si>
   <si>
+    <t>testaccount1@testingxperts.com</t>
+  </si>
+  <si>
+    <t>Testing@123</t>
+  </si>
+  <si>
     <t>PASSWORD</t>
   </si>
   <si>
+    <t>WZynuKQ5j6CnsnctoGScF59D</t>
+  </si>
+  <si>
+    <t>72phbdI56sCaaCYIr7Se5451</t>
+  </si>
+  <si>
     <t>TES</t>
   </si>
   <si>
@@ -185,9 +232,18 @@
     <t>REST API TEST CONFIGURATION</t>
   </si>
   <si>
+    <t>https://gorest.co.in/public-api/users</t>
+  </si>
+  <si>
     <t>https://townsqd.com/api -old one</t>
   </si>
   <si>
+    <t>Auth. Token</t>
+  </si>
+  <si>
+    <t>Bearer 1a19e604ca039150a6dfd301fbaf43cd612a3d8437c371dcdf983a6697e8a6a0</t>
+  </si>
+  <si>
     <t>ANDROID CONFIGURATION</t>
   </si>
   <si>
@@ -197,12 +253,18 @@
     <t>NAME</t>
   </si>
   <si>
+    <t>Google Pixel 3 GoogleAPI Emulator</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>DEVICEID</t>
+  </si>
+  <si>
     <t>IOS CONFIGURATION</t>
   </si>
   <si>
@@ -210,57 +272,6 @@
   </si>
   <si>
     <t>UDID</t>
-  </si>
-  <si>
-    <t>txdemoone@gmail.com</t>
-  </si>
-  <si>
-    <t>https://gorest.co.in/public-api/users</t>
-  </si>
-  <si>
-    <t>Auth. Token</t>
-  </si>
-  <si>
-    <t>Bearer 1a19e604ca039150a6dfd301fbaf43cd612a3d8437c371dcdf983a6697e8a6a0</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Google Pixel 3 GoogleAPI Emulator</t>
-  </si>
-  <si>
-    <t>testaccount1@testingxperts.com</t>
-  </si>
-  <si>
-    <t>72phbdI56sCaaCYIr7Se5451</t>
-  </si>
-  <si>
-    <t>Testing@123</t>
-  </si>
-  <si>
-    <t>WZynuKQ5j6CnsnctoGScF59D</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>DEVICEID</t>
-  </si>
-  <si>
-    <t>WINDOWS_10</t>
-  </si>
-  <si>
-    <t>CHROME</t>
-  </si>
-  <si>
-    <t>TX Automate</t>
-  </si>
-  <si>
-    <t>Demo_Build</t>
-  </si>
-  <si>
-    <t>REMOTE</t>
   </si>
 </sst>
 </file>
@@ -270,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,7 +784,7 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="48.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" style="9" bestFit="1" customWidth="1"/>
@@ -783,7 +794,7 @@
     <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -792,99 +803,99 @@
       <c r="D1" s="16"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="76.5">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -892,9 +903,9 @@
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
@@ -902,366 +913,366 @@
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="51">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="38.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="38.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="38.25">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="13"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="15" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B44" s="14">
         <v>10</v>
@@ -1270,118 +1281,118 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="15" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
